--- a/POC/Assets/Dados KPI.xlsx
+++ b/POC/Assets/Dados KPI.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1640691921" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1640691921" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1640691921" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1640691921"/>
+      <pm:revision xmlns:pm="smNativeData" day="1640692518" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1640692518" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1640692518" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1640692518"/>
     </ext>
   </extLst>
 </workbook>
@@ -63,7 +63,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1640691921" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1640692518" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -85,7 +85,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1640691921" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1640692518" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -107,7 +107,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1640691921"/>
+          <pm:border xmlns:pm="smNativeData" id="1640692518"/>
         </ext>
       </extLst>
     </border>
@@ -126,7 +126,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1640691921"/>
+          <pm:border xmlns:pm="smNativeData" id="1640692518"/>
         </ext>
       </extLst>
     </border>
@@ -152,7 +152,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1640691921" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1640692518" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="13" defaultColWidth="14.432432" defaultRowHeight="15.75" customHeight="1"/>
@@ -451,7 +451,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="n">
-        <v>44287</v>
+        <v>44652</v>
       </c>
       <c r="B2" s="1">
         <f>ROUND(F2*0.007+COS(F2),0)</f>
@@ -474,7 +474,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="n">
-        <v>44256</v>
+        <v>44621</v>
       </c>
       <c r="B3" s="1">
         <f>ROUND(F3*0.007+COS(F3),0)</f>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="n">
-        <v>44228</v>
+        <v>44593</v>
       </c>
       <c r="B4" s="1">
         <f>ROUND(F4*0.007+COS(F4),0)</f>
@@ -520,7 +520,7 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="n">
-        <v>44197</v>
+        <v>44562</v>
       </c>
       <c r="B5" s="1">
         <f>ROUND(F5*0.007+COS(F5),0)</f>
@@ -543,7 +543,7 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="B6" s="1">
         <f>ROUND(F6*0.007+COS(F6),0)</f>
@@ -566,7 +566,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="n">
-        <v>44136</v>
+        <v>44501</v>
       </c>
       <c r="B7" s="1">
         <f>ROUND(F7*0.007+COS(F7),0)</f>
@@ -589,7 +589,7 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="n">
-        <v>44105</v>
+        <v>44470</v>
       </c>
       <c r="B8" s="1">
         <f>ROUND(F8*0.007+COS(F8),0)</f>
@@ -612,7 +612,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="n">
-        <v>44075</v>
+        <v>44440</v>
       </c>
       <c r="B9" s="1">
         <f>ROUND(F9*0.007+COS(F9),0)</f>
@@ -635,7 +635,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="B10" s="1">
         <f>ROUND(F10*0.007+COS(F10),0)</f>
@@ -658,7 +658,7 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B11" s="1">
         <f>ROUND(F11*0.007+COS(F11),0)</f>
@@ -681,7 +681,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="B12" s="1">
         <f>ROUND(F12*0.007+COS(F12),0)</f>
@@ -704,7 +704,7 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="n">
-        <v>43952</v>
+        <v>44317</v>
       </c>
       <c r="B13" s="1">
         <f>ROUND(F13*0.007+COS(F13),0)</f>
@@ -727,7 +727,7 @@
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="n">
-        <v>43922</v>
+        <v>44287</v>
       </c>
       <c r="B14" s="1">
         <f>ROUND(F14*0.007+COS(F14),0)</f>
@@ -750,7 +750,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="n">
-        <v>43891</v>
+        <v>44256</v>
       </c>
       <c r="B15" s="1">
         <f>ROUND(F15*0.007+COS(F15),0)</f>
@@ -773,7 +773,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="n">
-        <v>43862</v>
+        <v>44228</v>
       </c>
       <c r="B16" s="1">
         <f>ROUND(F16*0.007+COS(F16),0)</f>
@@ -796,7 +796,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="n">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B17" s="1">
         <f>ROUND(F17*0.007+COS(F17),0)</f>
@@ -819,7 +819,7 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B18" s="1">
         <f>ROUND(F18*0.007+COS(F18),0)</f>
@@ -842,7 +842,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="n">
-        <v>43770</v>
+        <v>44136</v>
       </c>
       <c r="B19" s="1">
         <f>ROUND(F19*0.007+COS(F19),0)</f>
@@ -865,7 +865,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="n">
-        <v>43739</v>
+        <v>44105</v>
       </c>
       <c r="B20" s="1">
         <f>ROUND(F20*0.007+COS(F20),0)</f>
@@ -888,7 +888,7 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="n">
-        <v>43709</v>
+        <v>44075</v>
       </c>
       <c r="B21" s="1">
         <f>ROUND(F21*0.007+COS(F21),0)</f>
@@ -911,7 +911,7 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="n">
-        <v>43678</v>
+        <v>44044</v>
       </c>
       <c r="B22" s="1">
         <f>ROUND(F22*0.007+COS(F22),0)</f>
@@ -934,7 +934,7 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="n">
-        <v>43647</v>
+        <v>44013</v>
       </c>
       <c r="B23" s="1">
         <f>ROUND(F23*0.007+COS(F23),0)</f>
@@ -957,7 +957,7 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="n">
-        <v>43617</v>
+        <v>43983</v>
       </c>
       <c r="B24" s="1">
         <f>ROUND(F24*0.007+COS(F24),0)</f>
@@ -980,7 +980,7 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="n">
-        <v>43586</v>
+        <v>43952</v>
       </c>
       <c r="B25" s="1">
         <f>ROUND(F25*0.007+COS(F25),0)</f>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="n">
-        <v>43556</v>
+        <v>43922</v>
       </c>
       <c r="B26" s="1">
         <f>ROUND(F26*0.007+COS(F26),0)</f>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="n">
-        <v>43525</v>
+        <v>43891</v>
       </c>
       <c r="B27" s="1">
         <f>ROUND(F27*0.007+COS(F27),0)</f>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="n">
-        <v>43497</v>
+        <v>43862</v>
       </c>
       <c r="B28" s="1">
         <f>ROUND(F28*0.007+COS(F28),0)</f>
@@ -1067,12 +1067,12 @@
         <v>157</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>4177607.6653244677</v>
+        <v>4177607.66532446817</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="n">
-        <v>43466</v>
+        <v>43831</v>
       </c>
       <c r="B29" s="1">
         <f>ROUND(F29*0.007+COS(F29),0)</f>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B30" s="1">
         <f>ROUND(F30*0.007+COS(F30),0)</f>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="n">
-        <v>43405</v>
+        <v>43770</v>
       </c>
       <c r="B31" s="1">
         <f>ROUND(F31*0.007+COS(F31),0)</f>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="n">
-        <v>43374</v>
+        <v>43739</v>
       </c>
       <c r="B32" s="1">
         <f>ROUND(F32*0.007+COS(F32),0)</f>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="n">
-        <v>43344</v>
+        <v>43709</v>
       </c>
       <c r="B33" s="1">
         <f>ROUND(F33*0.007+COS(F33),0)</f>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="n">
-        <v>43313</v>
+        <v>43678</v>
       </c>
       <c r="B34" s="1">
         <f>ROUND(F34*0.007+COS(F34),0)</f>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="n">
-        <v>43282</v>
+        <v>43647</v>
       </c>
       <c r="B35" s="1">
         <f>ROUND(F35*0.007+COS(F35),0)</f>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="n">
-        <v>43252</v>
+        <v>43617</v>
       </c>
       <c r="B36" s="1">
         <f>ROUND(F36*0.007+COS(F36),0)</f>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="n">
-        <v>43221</v>
+        <v>43586</v>
       </c>
       <c r="B37" s="1">
         <f>ROUND(F37*0.007+COS(F37),0)</f>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="n">
-        <v>43191</v>
+        <v>43556</v>
       </c>
       <c r="B38" s="1">
         <f>ROUND(F38*0.007+COS(F38),0)</f>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="n">
-        <v>43160</v>
+        <v>43525</v>
       </c>
       <c r="B39" s="1">
         <f>ROUND(F39*0.007+COS(F39),0)</f>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="n">
-        <v>43132</v>
+        <v>43497</v>
       </c>
       <c r="B40" s="1">
         <f>ROUND(F40*0.007+COS(F40),0)</f>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="n">
-        <v>43101</v>
+        <v>43466</v>
       </c>
       <c r="B41" s="1">
         <f>ROUND(F41*0.007+COS(F41),0)</f>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B42" s="1">
         <f>ROUND(F42*0.007+COS(F42),0)</f>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="n">
-        <v>43040</v>
+        <v>43405</v>
       </c>
       <c r="B43" s="1">
         <f>ROUND(F43*0.007+COS(F43),0)</f>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="n">
-        <v>43009</v>
+        <v>43374</v>
       </c>
       <c r="B44" s="1">
         <f>ROUND(F44*0.007+COS(F44),0)</f>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="n">
-        <v>42979</v>
+        <v>43344</v>
       </c>
       <c r="B45" s="1">
         <f>ROUND(F45*0.007+COS(F45),0)</f>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="n">
-        <v>42948</v>
+        <v>43313</v>
       </c>
       <c r="B46" s="1">
         <f>ROUND(F46*0.007+COS(F46),0)</f>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="n">
-        <v>42917</v>
+        <v>43282</v>
       </c>
       <c r="B47" s="1">
         <f>ROUND(F47*0.007+COS(F47),0)</f>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="n">
-        <v>42887</v>
+        <v>43252</v>
       </c>
       <c r="B48" s="1">
         <f>ROUND(F48*0.007+COS(F48),0)</f>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="n">
-        <v>42856</v>
+        <v>43221</v>
       </c>
       <c r="B49" s="1">
         <f>ROUND(F49*0.007+COS(F49),0)</f>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="n">
-        <v>42826</v>
+        <v>43191</v>
       </c>
       <c r="B50" s="1">
         <f>ROUND(F50*0.007+COS(F50),0)</f>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="n">
-        <v>42795</v>
+        <v>43160</v>
       </c>
       <c r="B51" s="1">
         <f>ROUND(F51*0.007+COS(F51),0)</f>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="n">
-        <v>42767</v>
+        <v>43132</v>
       </c>
       <c r="B52" s="1">
         <f>ROUND(F52*0.007+COS(F52),0)</f>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="n">
-        <v>42736</v>
+        <v>43101</v>
       </c>
       <c r="B53" s="1">
         <f>ROUND(F53*0.007+COS(F53),0)</f>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="B54" s="1">
         <f>ROUND(F54*0.007+COS(F54),0)</f>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="n">
-        <v>42675</v>
+        <v>43040</v>
       </c>
       <c r="B55" s="1">
         <f>ROUND(F55*0.007+COS(F55),0)</f>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="n">
-        <v>42644</v>
+        <v>43009</v>
       </c>
       <c r="B56" s="1">
         <f>ROUND(F56*0.007+COS(F56),0)</f>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="n">
-        <v>42614</v>
+        <v>42979</v>
       </c>
       <c r="B57" s="1">
         <f>ROUND(F57*0.007+COS(F57),0)</f>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="n">
-        <v>42583</v>
+        <v>42948</v>
       </c>
       <c r="B58" s="1">
         <f>ROUND(F58*0.007+COS(F58),0)</f>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="n">
-        <v>42552</v>
+        <v>42917</v>
       </c>
       <c r="B59" s="1">
         <f>ROUND(F59*0.007+COS(F59),0)</f>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="n">
-        <v>42522</v>
+        <v>42887</v>
       </c>
       <c r="B60" s="1">
         <f>ROUND(F60*0.007+COS(F60),0)</f>
@@ -1803,12 +1803,12 @@
         <v>125</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>940251.16089503991</v>
+        <v>940251.160895040026</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="n">
-        <v>42491</v>
+        <v>42856</v>
       </c>
       <c r="B61" s="1">
         <f>ROUND(F61*0.007+COS(F61),0)</f>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="n">
-        <v>42461</v>
+        <v>42826</v>
       </c>
       <c r="B62" s="1">
         <f>ROUND(F62*0.007+COS(F62),0)</f>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="n">
-        <v>42430</v>
+        <v>42795</v>
       </c>
       <c r="B63" s="1">
         <f>ROUND(F63*0.007+COS(F63),0)</f>
@@ -1872,12 +1872,12 @@
         <v>125</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>936886.79416259611</v>
+        <v>936886.794162595994</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="n">
-        <v>42401</v>
+        <v>42767</v>
       </c>
       <c r="B64" s="1">
         <f>ROUND(F64*0.007+COS(F64),0)</f>
@@ -1895,12 +1895,12 @@
         <v>125</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>876875.272364850156</v>
+        <v>876875.27236485004</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="n">
-        <v>42370</v>
+        <v>42736</v>
       </c>
       <c r="B65" s="1">
         <f>ROUND(F65*0.007+COS(F65),0)</f>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="n">
-        <v>42339</v>
+        <v>42705</v>
       </c>
       <c r="B66" s="1">
         <f>ROUND(F66*0.007+COS(F66),0)</f>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="n">
-        <v>42309</v>
+        <v>42675</v>
       </c>
       <c r="B67" s="1">
         <f>ROUND(F67*0.007+COS(F67),0)</f>
@@ -1964,12 +1964,12 @@
         <v>125</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>785605.305441498989</v>
+        <v>785605.305441498873</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="n">
-        <v>42278</v>
+        <v>42644</v>
       </c>
       <c r="B68" s="1">
         <f>ROUND(F68*0.007+COS(F68),0)</f>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="2" t="n">
-        <v>42248</v>
+        <v>42614</v>
       </c>
       <c r="B69" s="1">
         <f>ROUND(F69*0.007+COS(F69),0)</f>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="n">
-        <v>42217</v>
+        <v>42583</v>
       </c>
       <c r="B70" s="1">
         <f>ROUND(F70*0.007+COS(F70),0)</f>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="n">
-        <v>42186</v>
+        <v>42552</v>
       </c>
       <c r="B71" s="1">
         <f>ROUND(F71*0.007+COS(F71),0)</f>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="n">
-        <v>42156</v>
+        <v>42522</v>
       </c>
       <c r="B72" s="1">
         <f>ROUND(F72*0.007+COS(F72),0)</f>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="n">
-        <v>42125</v>
+        <v>42491</v>
       </c>
       <c r="B73" s="1">
         <f>ROUND(F73*0.007+COS(F73),0)</f>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="n">
-        <v>42095</v>
+        <v>42461</v>
       </c>
       <c r="B74" s="1">
         <f>ROUND(F74*0.007+COS(F74),0)</f>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="n">
-        <v>42064</v>
+        <v>42430</v>
       </c>
       <c r="B75" s="1">
         <f>ROUND(F75*0.007+COS(F75),0)</f>
@@ -2148,12 +2148,12 @@
         <v>125</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>502680.75496099703</v>
+        <v>502680.754960996972</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="n">
-        <v>42036</v>
+        <v>42401</v>
       </c>
       <c r="B76" s="1">
         <f>ROUND(F76*0.007+COS(F76),0)</f>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="n">
-        <v>42005</v>
+        <v>42370</v>
       </c>
       <c r="B77" s="1">
         <f>ROUND(F77*0.007+COS(F77),0)</f>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="n">
-        <v>41974</v>
+        <v>42339</v>
       </c>
       <c r="B78" s="1">
         <f>ROUND(F78*0.007+COS(F78),0)</f>
@@ -2217,12 +2217,12 @@
         <v>96</v>
       </c>
       <c r="F78" s="3" t="n">
-        <v>473673.620524733036</v>
+        <v>473673.62052473292</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="n">
-        <v>41944</v>
+        <v>42309</v>
       </c>
       <c r="B79" s="1">
         <f>ROUND(F79*0.007+COS(F79),0)</f>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="n">
-        <v>41913</v>
+        <v>42278</v>
       </c>
       <c r="B80" s="1">
         <f>ROUND(F80*0.007+COS(F80),0)</f>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="n">
-        <v>41883</v>
+        <v>42248</v>
       </c>
       <c r="B81" s="1">
         <f>ROUND(F81*0.007+COS(F81),0)</f>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="n">
-        <v>41852</v>
+        <v>42217</v>
       </c>
       <c r="B82" s="1">
         <f>ROUND(F82*0.007+COS(F82),0)</f>
@@ -2309,12 +2309,12 @@
         <v>96</v>
       </c>
       <c r="F82" s="3" t="n">
-        <v>396341.851323104114</v>
+        <v>396341.851323104056</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="n">
-        <v>41821</v>
+        <v>42186</v>
       </c>
       <c r="B83" s="1">
         <f>ROUND(F83*0.007+COS(F83),0)</f>
@@ -2332,12 +2332,12 @@
         <v>96</v>
       </c>
       <c r="F83" s="3" t="n">
-        <v>346757.589792075625</v>
+        <v>346757.589792075567</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="n">
-        <v>41791</v>
+        <v>42156</v>
       </c>
       <c r="B84" s="1">
         <f>ROUND(F84*0.007+COS(F84),0)</f>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="n">
-        <v>41760</v>
+        <v>42125</v>
       </c>
       <c r="B85" s="1">
         <f>ROUND(F85*0.007+COS(F85),0)</f>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="n">
-        <v>41730</v>
+        <v>42095</v>
       </c>
       <c r="B86" s="1">
         <f>ROUND(F86*0.007+COS(F86),0)</f>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="n">
-        <v>41699</v>
+        <v>42064</v>
       </c>
       <c r="B87" s="1">
         <f>ROUND(F87*0.007+COS(F87),0)</f>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="n">
-        <v>41671</v>
+        <v>42036</v>
       </c>
       <c r="B88" s="1">
         <f>ROUND(F88*0.007+COS(F88),0)</f>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="n">
-        <v>41640</v>
+        <v>42005</v>
       </c>
       <c r="B89" s="1">
         <f>ROUND(F89*0.007+COS(F89),0)</f>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="n">
-        <v>41609</v>
+        <v>41974</v>
       </c>
       <c r="B90" s="1">
         <f>ROUND(F90*0.007+COS(F90),0)</f>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="n">
-        <v>41579</v>
+        <v>41944</v>
       </c>
       <c r="B91" s="1">
         <f>ROUND(F91*0.007+COS(F91),0)</f>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="n">
-        <v>41548</v>
+        <v>41913</v>
       </c>
       <c r="B92" s="1">
         <f>ROUND(F92*0.007+COS(F92),0)</f>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="2" t="n">
-        <v>41518</v>
+        <v>41883</v>
       </c>
       <c r="B93" s="1">
         <f>ROUND(F93*0.007+COS(F93),0)</f>
@@ -2562,12 +2562,12 @@
         <v>48</v>
       </c>
       <c r="F93" s="3" t="n">
-        <v>201982.968499243259</v>
+        <v>201982.96849924323</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="n">
-        <v>41487</v>
+        <v>41852</v>
       </c>
       <c r="B94" s="1">
         <f>ROUND(F94*0.007+COS(F94),0)</f>
@@ -2585,12 +2585,12 @@
         <v>48</v>
       </c>
       <c r="F94" s="3" t="n">
-        <v>220080.192063075257</v>
+        <v>220080.192063075228</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="n">
-        <v>41456</v>
+        <v>41821</v>
       </c>
       <c r="B95" s="1">
         <f>ROUND(F95*0.007+COS(F95),0)</f>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="n">
-        <v>41426</v>
+        <v>41791</v>
       </c>
       <c r="B96" s="1">
         <f>ROUND(F96*0.007+COS(F96),0)</f>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="n">
-        <v>41395</v>
+        <v>41760</v>
       </c>
       <c r="B97" s="1">
         <f>ROUND(F97*0.007+COS(F97),0)</f>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="n">
-        <v>41365</v>
+        <v>41730</v>
       </c>
       <c r="B98" s="1">
         <f>ROUND(F98*0.007+COS(F98),0)</f>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="n">
-        <v>41334</v>
+        <v>41699</v>
       </c>
       <c r="B99" s="1">
         <f>ROUND(F99*0.007+COS(F99),0)</f>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="n">
-        <v>41306</v>
+        <v>41671</v>
       </c>
       <c r="B100" s="1">
         <f>ROUND(F100*0.007+COS(F100),0)</f>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1">
       <c r="A101" s="2" t="n">
-        <v>41275</v>
+        <v>41640</v>
       </c>
       <c r="B101" s="1">
         <f>ROUND(F101*0.007+COS(F101),0)</f>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="n">
-        <v>41244</v>
+        <v>41609</v>
       </c>
       <c r="B102" s="1">
         <f>ROUND(F102*0.007+COS(F102),0)</f>
@@ -2769,12 +2769,12 @@
         <v>25</v>
       </c>
       <c r="F102" s="3" t="n">
-        <v>130797.268549911867</v>
+        <v>130797.268549911852</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="n">
-        <v>41214</v>
+        <v>41579</v>
       </c>
       <c r="B103" s="1">
         <f>ROUND(F103*0.007+COS(F103),0)</f>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="n">
-        <v>41183</v>
+        <v>41548</v>
       </c>
       <c r="B104" s="1">
         <f>ROUND(F104*0.007+COS(F104),0)</f>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="n">
-        <v>41153</v>
+        <v>41518</v>
       </c>
       <c r="B105" s="1">
         <f>ROUND(F105*0.007+COS(F105),0)</f>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="n">
-        <v>41122</v>
+        <v>41487</v>
       </c>
       <c r="B106" s="1">
         <f>ROUND(F106*0.007+COS(F106),0)</f>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="n">
-        <v>41091</v>
+        <v>41456</v>
       </c>
       <c r="B107" s="1">
         <f>ROUND(F107*0.007+COS(F107),0)</f>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" s="2" t="n">
-        <v>41061</v>
+        <v>41426</v>
       </c>
       <c r="B108" s="1">
         <f>ROUND(F108*0.007+COS(F108),0)</f>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="n">
-        <v>41030</v>
+        <v>41395</v>
       </c>
       <c r="B109" s="1">
         <f>ROUND(F109*0.007+COS(F109),0)</f>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="n">
-        <v>41000</v>
+        <v>41365</v>
       </c>
       <c r="B110" s="1">
         <f>ROUND(F110*0.007+COS(F110),0)</f>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="n">
-        <v>40969</v>
+        <v>41334</v>
       </c>
       <c r="B111" s="1">
         <f>ROUND(F111*0.007+COS(F111),0)</f>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="n">
-        <v>40940</v>
+        <v>41306</v>
       </c>
       <c r="B112" s="1">
         <f>ROUND(F112*0.007+COS(F112),0)</f>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="n">
-        <v>40909</v>
+        <v>41275</v>
       </c>
       <c r="B113" s="1">
         <f>ROUND(F113*0.007+COS(F113),0)</f>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="n">
-        <v>40878</v>
+        <v>41244</v>
       </c>
       <c r="B114" s="1">
         <f>ROUND(F114*0.007+COS(F114),0)</f>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="n">
-        <v>40848</v>
+        <v>41214</v>
       </c>
       <c r="B115" s="1">
         <f>ROUND(F115*0.007+COS(F115),0)</f>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1">
       <c r="A116" s="2" t="n">
-        <v>40817</v>
+        <v>41183</v>
       </c>
       <c r="B116" s="1">
         <f>ROUND(F116*0.007+COS(F116),0)</f>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="n">
-        <v>40787</v>
+        <v>41153</v>
       </c>
       <c r="B117" s="1">
         <f>ROUND(F117*0.007+COS(F117),0)</f>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1">
       <c r="A118" s="2" t="n">
-        <v>40756</v>
+        <v>41122</v>
       </c>
       <c r="B118" s="1">
         <f>ROUND(F118*0.007+COS(F118),0)</f>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1">
       <c r="A119" s="2" t="n">
-        <v>40725</v>
+        <v>41091</v>
       </c>
       <c r="B119" s="1">
         <f>ROUND(F119*0.007+COS(F119),0)</f>
@@ -3160,12 +3160,12 @@
         <v>12</v>
       </c>
       <c r="F119" s="3" t="n">
-        <v>61084.2296482167949</v>
+        <v>61084.2296482168094</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1">
       <c r="A120" s="2" t="n">
-        <v>40695</v>
+        <v>41061</v>
       </c>
       <c r="B120" s="1">
         <f>ROUND(F120*0.007+COS(F120),0)</f>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="n">
-        <v>40664</v>
+        <v>41030</v>
       </c>
       <c r="B121" s="1">
         <f>ROUND(F121*0.007+COS(F121),0)</f>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="n">
-        <v>40634</v>
+        <v>41000</v>
       </c>
       <c r="B122" s="1">
         <f>ROUND(F122*0.007+COS(F122),0)</f>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="n">
-        <v>40603</v>
+        <v>40969</v>
       </c>
       <c r="B123" s="1">
         <f>ROUND(F123*0.007+COS(F123),0)</f>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="n">
-        <v>40575</v>
+        <v>40940</v>
       </c>
       <c r="B124" s="1">
         <f>ROUND(F124*0.007+COS(F124),0)</f>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="n">
-        <v>40544</v>
+        <v>40909</v>
       </c>
       <c r="B125" s="1">
         <f>ROUND(F125*0.007+COS(F125),0)</f>
@@ -3305,7 +3305,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1640691921" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1640692518" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3314,16 +3314,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1640691921" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1640691921" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1640691921" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1640691921" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1640692518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1640692518" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1640692518" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1640692518" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1640691921" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1640692518" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
